--- a/VersionRecords/Version Brand/BS权限/新增--修改--删除--权限配置表.xlsx
+++ b/VersionRecords/Version Brand/BS权限/新增--修改--删除--权限配置表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Mogo_Doc\VersionRecords\Version Brand\BS权限\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="5085"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="27540" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="需要新增加的权限节点（brand）" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="122">
   <si>
     <t>级别</t>
   </si>
@@ -78,10 +73,6 @@
   </si>
   <si>
     <t>cms/topCarousel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部轮播广告位管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -749,12 +740,76 @@
     <t>修改社区推荐内容展示文案</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>内容管理--CMS--CMS内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌管理-优先品牌管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌评测管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand/findAsse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌管理-优先品牌管理-品牌评测管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增评测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand/addAsse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改评测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand/editAsse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询评测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部轮播广告位管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,9 +976,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1031,7 +1083,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1063,10 +1115,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1098,7 +1149,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1274,14 +1324,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="64.625" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
@@ -1289,7 +1339,7 @@
     <col min="9" max="9" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1318,20 +1368,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1340,23 +1390,23 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -1367,66 +1417,57 @@
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>14</v>
+      <c r="H3" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1437,16 +1478,204 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1456,14 +1685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="56.875" customWidth="1"/>
     <col min="3" max="3" width="31.375" customWidth="1"/>
@@ -1472,21 +1701,21 @@
     <col min="10" max="10" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>53</v>
+      <c r="E1" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1504,243 +1733,243 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14"/>
       <c r="G2" s="4"/>
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>14</v>
+      <c r="I2" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>14</v>
+      <c r="I3" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>14</v>
+      <c r="I4" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>14</v>
+      <c r="I5" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>14</v>
+      <c r="I6" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>14</v>
+      <c r="I7" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>52</v>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>14</v>
+      <c r="I9" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1748,117 +1977,117 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8"/>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1870,53 +2099,53 @@
       <c r="I21" s="4"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="3"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="3"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="10"/>
+    <row r="25" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1926,14 +2155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="43.625" customWidth="1"/>
@@ -1943,18 +2172,18 @@
     <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>56</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1972,691 +2201,691 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="D2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>14</v>
+      <c r="H2" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>58</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>14</v>
+      <c r="H3" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>62</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>14</v>
+      <c r="H4" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>64</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>14</v>
+      <c r="H5" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>66</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>14</v>
+      <c r="H6" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>68</v>
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>14</v>
+      <c r="H7" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>69</v>
+      <c r="C8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>70</v>
+      <c r="C9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>14</v>
+      <c r="H9" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>71</v>
+      <c r="C10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>78</v>
+      <c r="C12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>14</v>
+      <c r="H12" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>79</v>
+      <c r="C13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>14</v>
+      <c r="H13" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>3</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>3</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>14</v>
+      <c r="H21" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>3</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>97</v>
+      <c r="C22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>98</v>
+      <c r="C23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>14</v>
+      <c r="H23" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>3</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>102</v>
+      <c r="C24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>14</v>
+      <c r="H24" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>105</v>
+      <c r="C25" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>14</v>
+      <c r="H25" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>3</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="3"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="3"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="10"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/VersionRecords/Version Brand/BS权限/新增--修改--删除--权限配置表.xlsx
+++ b/VersionRecords/Version Brand/BS权限/新增--修改--删除--权限配置表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Mogo_Doc\VersionRecords\Version Brand\BS权限\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="27540" windowHeight="10635"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
   <si>
     <t>级别</t>
   </si>
@@ -804,12 +809,28 @@
     <t>顶部轮播广告位管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>编辑器上传文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌管理-优先品牌管理-品牌评测管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌管理-优先品牌管理-品牌评测管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cms/addContextForUploadPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,7 +1104,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1115,9 +1136,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1149,6 +1171,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1324,14 +1347,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="64.625" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
@@ -1339,7 +1362,7 @@
     <col min="9" max="9" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -1395,7 +1418,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -1422,13 +1445,13 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
       <c r="F4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1439,7 +1462,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -1450,7 +1473,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -1461,13 +1484,13 @@
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1478,7 +1501,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -1503,7 +1526,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -1530,7 +1553,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1556,12 +1579,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>112</v>
@@ -1582,18 +1605,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -1604,14 +1643,14 @@
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="F16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="D17" s="5"/>
@@ -1621,7 +1660,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -1632,7 +1671,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
@@ -1643,20 +1682,20 @@
       <c r="H19" s="4"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="F20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
       <c r="D21" s="5"/>
       <c r="F21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="D22" s="3"/>
@@ -1666,7 +1705,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
@@ -1685,14 +1724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="56.875" customWidth="1"/>
     <col min="3" max="3" width="31.375" customWidth="1"/>
@@ -1701,7 +1740,7 @@
     <col min="10" max="10" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25" thickBot="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -1759,7 +1798,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -1785,7 +1824,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1811,7 +1850,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1837,7 +1876,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1863,7 +1902,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1889,7 +1928,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1915,7 +1954,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1941,7 +1980,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -1967,7 +2006,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="14"/>
       <c r="C11" s="3"/>
@@ -1979,7 +2018,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
@@ -1991,7 +2030,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
@@ -2003,7 +2042,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2015,7 +2054,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2027,7 +2066,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
@@ -2039,7 +2078,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -2051,7 +2090,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2063,7 +2102,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
@@ -2075,7 +2114,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
@@ -2087,7 +2126,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2099,7 +2138,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="7"/>
@@ -2111,7 +2150,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
@@ -2123,7 +2162,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
@@ -2135,7 +2174,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" thickBot="1">
+    <row r="25" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -2155,14 +2194,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="43.625" customWidth="1"/>
@@ -2172,7 +2211,7 @@
     <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" thickBot="1">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2201,7 +2240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -2224,7 +2263,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -2247,7 +2286,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2270,7 +2309,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2293,7 +2332,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2316,7 +2355,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2339,7 +2378,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -2362,7 +2401,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2385,7 +2424,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -2408,7 +2447,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -2431,7 +2470,7 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2454,7 +2493,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -2477,7 +2516,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -2500,7 +2539,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -2523,7 +2562,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -2546,7 +2585,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -2569,7 +2608,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -2592,7 +2631,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -2615,7 +2654,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -2638,7 +2677,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -2661,7 +2700,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -2684,7 +2723,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -2707,7 +2746,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -2730,7 +2769,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -2753,7 +2792,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -2776,7 +2815,7 @@
       </c>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -2799,7 +2838,7 @@
       </c>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2810,7 +2849,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2821,7 +2860,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -2832,7 +2871,7 @@
       <c r="H30" s="20"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -2843,7 +2882,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -2854,7 +2893,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2865,7 +2904,7 @@
       <c r="H33" s="20"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2876,7 +2915,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25" thickBot="1">
+    <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
